--- a/db/data.xlsx
+++ b/db/data.xlsx
@@ -18831,8 +18831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK1519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K484" zoomScale="172" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N495" sqref="N495"/>
+    <sheetView tabSelected="1" topLeftCell="K374" zoomScale="172" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="L388" sqref="L388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18845,7 +18845,7 @@
     <col min="8" max="8" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="49" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="84.1640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="24.83203125" style="1" customWidth="1"/>
@@ -36672,7 +36672,7 @@
         <v>21</v>
       </c>
       <c r="L388" s="1" t="s">
-        <v>3344</v>
+        <v>3338</v>
       </c>
       <c r="M388" s="1" t="s">
         <v>810</v>

--- a/db/data.xlsx
+++ b/db/data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13345" uniqueCount="6048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13346" uniqueCount="6052">
   <si>
     <t>id</t>
   </si>
@@ -17500,9 +17500,6 @@
     <t>The Steinbeck classic… ruined by casting Nick Nolte as Doc.</t>
   </si>
   <si>
-    <t>Farah Fawcett was braless the whole movie.  I forget the rest</t>
-  </si>
-  <si>
     <t>Why would anyone watch a movie with Gary Busey, Jodie Foster and The Band's Robbie Robertson set in a traveling carnival?</t>
   </si>
   <si>
@@ -18188,6 +18185,21 @@
   </si>
   <si>
     <t>There's a scene here where the lady-ninja is possessed by an arcade machine!</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Farah Fawcett must have burned her bra before the filming of this movie</t>
+  </si>
+  <si>
+    <t>Exciting and new for it's time.</t>
+  </si>
+  <si>
+    <t>Guest stars galore</t>
+  </si>
+  <si>
+    <t>The last season for Julie McCoy… it's a shame, she really had a nose for comedy.</t>
   </si>
 </sst>
 </file>
@@ -18893,8 +18905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP1519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1127" zoomScale="172" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B1139" sqref="B1139"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="172" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N858" sqref="N858"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20897,7 +20909,7 @@
         <v>264</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>6022</v>
+        <v>6021</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>264</v>
@@ -21367,7 +21379,7 @@
         <v>89</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>6025</v>
+        <v>6024</v>
       </c>
       <c r="O62" s="4"/>
       <c r="P62" s="1" t="s">
@@ -21465,7 +21477,7 @@
         <v>193</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>6026</v>
+        <v>6025</v>
       </c>
       <c r="O63" s="4"/>
       <c r="P63" s="1" t="s">
@@ -21845,7 +21857,7 @@
         <v>32</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>6023</v>
+        <v>6022</v>
       </c>
       <c r="O67" s="4"/>
       <c r="P67" s="1" t="s">
@@ -21945,7 +21957,7 @@
         <v>125</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>6024</v>
+        <v>6023</v>
       </c>
       <c r="O68" s="4"/>
       <c r="P68" s="1" t="s">
@@ -24583,7 +24595,7 @@
         <v>250</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>6027</v>
+        <v>6026</v>
       </c>
       <c r="P101" s="1" t="s">
         <v>250</v>
@@ -24621,7 +24633,7 @@
         <v>117</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>6028</v>
+        <v>6027</v>
       </c>
       <c r="P102" s="1" t="s">
         <v>117</v>
@@ -26236,7 +26248,7 @@
         <v>55</v>
       </c>
       <c r="N142" s="4" t="s">
-        <v>6029</v>
+        <v>6028</v>
       </c>
       <c r="P142" s="1" t="s">
         <v>55</v>
@@ -26318,7 +26330,7 @@
         <v>164</v>
       </c>
       <c r="N144" s="4" t="s">
-        <v>6030</v>
+        <v>6029</v>
       </c>
       <c r="P144" s="1" t="s">
         <v>164</v>
@@ -26356,7 +26368,7 @@
         <v>143</v>
       </c>
       <c r="N145" s="4" t="s">
-        <v>6031</v>
+        <v>6030</v>
       </c>
       <c r="P145" s="1" t="s">
         <v>144</v>
@@ -26818,7 +26830,7 @@
         <v>213</v>
       </c>
       <c r="N157" s="4" t="s">
-        <v>6032</v>
+        <v>6031</v>
       </c>
       <c r="P157" s="1" t="s">
         <v>213</v>
@@ -26891,7 +26903,7 @@
         <v>48</v>
       </c>
       <c r="N159" s="4" t="s">
-        <v>6033</v>
+        <v>6032</v>
       </c>
       <c r="P159" s="1" t="s">
         <v>48</v>
@@ -39289,7 +39301,7 @@
         <v>321</v>
       </c>
       <c r="N488" s="4" t="s">
-        <v>6034</v>
+        <v>6033</v>
       </c>
       <c r="P488" s="1" t="s">
         <v>322</v>
@@ -39467,8 +39479,8 @@
       <c r="N493" s="4" t="s">
         <v>5706</v>
       </c>
-      <c r="P493" s="3" t="b">
-        <v>1</v>
+      <c r="P493" s="3" t="s">
+        <v>6047</v>
       </c>
       <c r="Q493" s="1" t="s">
         <v>974</v>
@@ -45252,7 +45264,7 @@
         <v>2130</v>
       </c>
       <c r="N641" s="4" t="s">
-        <v>6035</v>
+        <v>6034</v>
       </c>
       <c r="P641" s="1" t="s">
         <v>2130</v>
@@ -45553,7 +45565,7 @@
         <v>1615</v>
       </c>
       <c r="N647" s="4" t="s">
-        <v>6037</v>
+        <v>6036</v>
       </c>
       <c r="P647" s="1" t="s">
         <v>1615</v>
@@ -45609,7 +45621,7 @@
         <v>1977</v>
       </c>
       <c r="N648" s="4" t="s">
-        <v>6036</v>
+        <v>6035</v>
       </c>
       <c r="P648" s="1" t="s">
         <v>1977</v>
@@ -46234,7 +46246,7 @@
         <v>2102</v>
       </c>
       <c r="N662" s="4" t="s">
-        <v>6040</v>
+        <v>6039</v>
       </c>
       <c r="P662" s="1" t="s">
         <v>2103</v>
@@ -46645,60 +46657,59 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="672" spans="2:29" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="B672" s="15" t="s">
+    <row r="672" spans="2:29" ht="32" x14ac:dyDescent="0.2">
+      <c r="B672" s="8" t="s">
         <v>4026</v>
       </c>
-      <c r="C672" s="6">
+      <c r="C672" s="1">
         <v>1981</v>
       </c>
-      <c r="D672" s="6" t="s">
+      <c r="D672" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="E672" s="6" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F672" s="6">
+      <c r="E672" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F672" s="1">
         <v>10</v>
       </c>
-      <c r="G672" s="6">
-        <v>1</v>
-      </c>
-      <c r="H672" s="6">
-        <v>1</v>
-      </c>
-      <c r="I672" s="6">
-        <v>1</v>
-      </c>
-      <c r="K672" s="6">
+      <c r="G672" s="1">
+        <v>1</v>
+      </c>
+      <c r="H672" s="1">
+        <v>1</v>
+      </c>
+      <c r="I672" s="1">
+        <v>1</v>
+      </c>
+      <c r="K672" s="1">
         <v>14</v>
       </c>
-      <c r="L672" s="16" t="s">
+      <c r="L672" s="5" t="s">
         <v>3335</v>
       </c>
-      <c r="M672" s="6" t="s">
+      <c r="M672" s="1" t="s">
         <v>1507</v>
       </c>
-      <c r="N672" s="17" t="s">
-        <v>5818</v>
-      </c>
-      <c r="O672" s="17"/>
-      <c r="P672" s="6" t="s">
+      <c r="N672" s="4" t="s">
+        <v>6048</v>
+      </c>
+      <c r="P672" s="1" t="s">
         <v>1508</v>
       </c>
-      <c r="Q672" s="6" t="s">
+      <c r="Q672" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="R672" s="6" t="s">
+      <c r="R672" s="1" t="s">
         <v>3097</v>
       </c>
-      <c r="AA672" s="6" t="s">
+      <c r="AA672" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="AB672" s="6" t="s">
+      <c r="AB672" s="1" t="s">
         <v>1510</v>
       </c>
-      <c r="AC672" s="6" t="s">
+      <c r="AC672" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -46870,7 +46881,7 @@
         <v>1417</v>
       </c>
       <c r="N676" s="4" t="s">
-        <v>5819</v>
+        <v>5818</v>
       </c>
       <c r="P676" s="1" t="s">
         <v>1417</v>
@@ -46914,7 +46925,7 @@
         <v>1782</v>
       </c>
       <c r="N677" s="14" t="s">
-        <v>5820</v>
+        <v>5819</v>
       </c>
       <c r="O677" s="14"/>
       <c r="P677" s="1" t="s">
@@ -46962,7 +46973,7 @@
         <v>1691</v>
       </c>
       <c r="N678" s="4" t="s">
-        <v>5821</v>
+        <v>5820</v>
       </c>
       <c r="P678" s="1" t="s">
         <v>1691</v>
@@ -47003,7 +47014,7 @@
         <v>1484</v>
       </c>
       <c r="N679" s="4" t="s">
-        <v>5822</v>
+        <v>5821</v>
       </c>
       <c r="P679" s="1" t="s">
         <v>1484</v>
@@ -47035,7 +47046,7 @@
         <v>1177</v>
       </c>
       <c r="N680" s="4" t="s">
-        <v>5823</v>
+        <v>5822</v>
       </c>
       <c r="P680" s="1" t="s">
         <v>1178</v>
@@ -47067,7 +47078,7 @@
         <v>2106</v>
       </c>
       <c r="N681" s="4" t="s">
-        <v>5824</v>
+        <v>5823</v>
       </c>
       <c r="P681" s="1" t="s">
         <v>2106</v>
@@ -47117,7 +47128,7 @@
         <v>1390</v>
       </c>
       <c r="N682" s="4" t="s">
-        <v>5825</v>
+        <v>5824</v>
       </c>
       <c r="P682" s="1" t="s">
         <v>1391</v>
@@ -47152,7 +47163,7 @@
         <v>2264</v>
       </c>
       <c r="N683" s="4" t="s">
-        <v>5826</v>
+        <v>5825</v>
       </c>
       <c r="P683" s="1" t="s">
         <v>2264</v>
@@ -47193,7 +47204,7 @@
         <v>2027</v>
       </c>
       <c r="N684" s="4" t="s">
-        <v>5827</v>
+        <v>5826</v>
       </c>
       <c r="P684" s="1" t="s">
         <v>2027</v>
@@ -47243,7 +47254,7 @@
         <v>1266</v>
       </c>
       <c r="N685" s="4" t="s">
-        <v>5828</v>
+        <v>5827</v>
       </c>
       <c r="P685" s="1" t="s">
         <v>1266</v>
@@ -47293,7 +47304,7 @@
         <v>1446</v>
       </c>
       <c r="N686" s="4" t="s">
-        <v>5829</v>
+        <v>5828</v>
       </c>
       <c r="P686" s="1" t="s">
         <v>1446</v>
@@ -47387,7 +47398,7 @@
         <v>3095</v>
       </c>
       <c r="N688" s="4" t="s">
-        <v>5830</v>
+        <v>5829</v>
       </c>
       <c r="P688" s="1" t="s">
         <v>3095</v>
@@ -47554,7 +47565,7 @@
         <v>1663</v>
       </c>
       <c r="N692" s="4" t="s">
-        <v>5831</v>
+        <v>5830</v>
       </c>
       <c r="P692" s="1" t="s">
         <v>1663</v>
@@ -47604,7 +47615,7 @@
         <v>2120</v>
       </c>
       <c r="N693" s="4" t="s">
-        <v>5832</v>
+        <v>5831</v>
       </c>
       <c r="P693" s="1" t="s">
         <v>2120</v>
@@ -47742,7 +47753,7 @@
         <v>2293</v>
       </c>
       <c r="N696" s="4" t="s">
-        <v>5833</v>
+        <v>5832</v>
       </c>
       <c r="P696" s="1" t="s">
         <v>2293</v>
@@ -47865,7 +47876,7 @@
         <v>1394</v>
       </c>
       <c r="N699" s="4" t="s">
-        <v>5834</v>
+        <v>5833</v>
       </c>
       <c r="P699" s="1" t="s">
         <v>1394</v>
@@ -47912,7 +47923,7 @@
         <v>2080</v>
       </c>
       <c r="N700" s="4" t="s">
-        <v>5835</v>
+        <v>5834</v>
       </c>
       <c r="P700" s="1" t="s">
         <v>2080</v>
@@ -47952,11 +47963,14 @@
       <c r="H701" s="1">
         <v>1</v>
       </c>
+      <c r="L701" s="1">
+        <v>2</v>
+      </c>
       <c r="M701" s="1" t="s">
         <v>3759</v>
       </c>
       <c r="N701" s="4" t="s">
-        <v>5836</v>
+        <v>5835</v>
       </c>
       <c r="P701" s="1" t="s">
         <v>3759</v>
@@ -48038,7 +48052,7 @@
         <v>2047</v>
       </c>
       <c r="N703" s="4" t="s">
-        <v>5837</v>
+        <v>5836</v>
       </c>
       <c r="P703" s="1" t="s">
         <v>2047</v>
@@ -48123,7 +48137,7 @@
         <v>1614</v>
       </c>
       <c r="N705" s="4" t="s">
-        <v>5839</v>
+        <v>5838</v>
       </c>
       <c r="P705" s="1" t="s">
         <v>3270</v>
@@ -48193,7 +48207,7 @@
         <v>2042</v>
       </c>
       <c r="N707" s="4" t="s">
-        <v>5838</v>
+        <v>5837</v>
       </c>
       <c r="P707" s="1" t="s">
         <v>3272</v>
@@ -48272,7 +48286,7 @@
         <v>1742</v>
       </c>
       <c r="N709" s="4" t="s">
-        <v>5840</v>
+        <v>5839</v>
       </c>
       <c r="P709" s="1" t="s">
         <v>1743</v>
@@ -48419,7 +48433,7 @@
         <v>1501</v>
       </c>
       <c r="N712" s="4" t="s">
-        <v>5841</v>
+        <v>5840</v>
       </c>
       <c r="P712" s="1" t="s">
         <v>1501</v>
@@ -48460,7 +48474,7 @@
         <v>1766</v>
       </c>
       <c r="N713" s="4" t="s">
-        <v>5842</v>
+        <v>5841</v>
       </c>
       <c r="P713" s="1" t="s">
         <v>1766</v>
@@ -48492,7 +48506,7 @@
         <v>1892</v>
       </c>
       <c r="N714" s="4" t="s">
-        <v>5843</v>
+        <v>5842</v>
       </c>
       <c r="P714" s="1" t="s">
         <v>1892</v>
@@ -48539,7 +48553,7 @@
         <v>1335</v>
       </c>
       <c r="N715" s="4" t="s">
-        <v>5844</v>
+        <v>5843</v>
       </c>
       <c r="P715" s="1" t="s">
         <v>1335</v>
@@ -48583,7 +48597,7 @@
         <v>1725</v>
       </c>
       <c r="N716" s="4" t="s">
-        <v>5845</v>
+        <v>5844</v>
       </c>
       <c r="P716" s="1" t="s">
         <v>1725</v>
@@ -48633,7 +48647,7 @@
         <v>1802</v>
       </c>
       <c r="N717" s="4" t="s">
-        <v>5846</v>
+        <v>5845</v>
       </c>
       <c r="P717" s="1" t="s">
         <v>1802</v>
@@ -48677,7 +48691,7 @@
         <v>1431</v>
       </c>
       <c r="N718" s="4" t="s">
-        <v>5847</v>
+        <v>5846</v>
       </c>
       <c r="P718" s="1" t="s">
         <v>1432</v>
@@ -48724,7 +48738,7 @@
         <v>1396</v>
       </c>
       <c r="N719" s="4" t="s">
-        <v>5848</v>
+        <v>5847</v>
       </c>
       <c r="P719" s="1" t="s">
         <v>1396</v>
@@ -49052,7 +49066,7 @@
         <v>1271</v>
       </c>
       <c r="N727" s="4" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="P727" s="1" t="s">
         <v>1272</v>
@@ -49096,7 +49110,7 @@
         <v>1940</v>
       </c>
       <c r="N728" s="4" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="P728" s="1" t="s">
         <v>1940</v>
@@ -49143,7 +49157,7 @@
         <v>1182</v>
       </c>
       <c r="N729" s="4" t="s">
-        <v>5851</v>
+        <v>5850</v>
       </c>
       <c r="P729" s="1" t="s">
         <v>1182</v>
@@ -49228,7 +49242,7 @@
         <v>1550</v>
       </c>
       <c r="N731" s="4" t="s">
-        <v>5852</v>
+        <v>5851</v>
       </c>
       <c r="P731" s="1" t="s">
         <v>1550</v>
@@ -49413,7 +49427,7 @@
         <v>1454</v>
       </c>
       <c r="N735" s="4" t="s">
-        <v>5853</v>
+        <v>5852</v>
       </c>
       <c r="P735" s="1" t="s">
         <v>3265</v>
@@ -49676,7 +49690,7 @@
         <v>1861</v>
       </c>
       <c r="N742" s="4" t="s">
-        <v>5854</v>
+        <v>5853</v>
       </c>
       <c r="P742" s="1" t="s">
         <v>1862</v>
@@ -49820,7 +49834,7 @@
         <v>1872</v>
       </c>
       <c r="N745" s="4" t="s">
-        <v>5855</v>
+        <v>5854</v>
       </c>
       <c r="P745" s="1" t="s">
         <v>1872</v>
@@ -50146,7 +50160,7 @@
         <v>1511</v>
       </c>
       <c r="N752" s="4" t="s">
-        <v>5856</v>
+        <v>5855</v>
       </c>
       <c r="P752" s="1" t="s">
         <v>1512</v>
@@ -50243,7 +50257,7 @@
         <v>2156</v>
       </c>
       <c r="N754" s="4" t="s">
-        <v>5857</v>
+        <v>5856</v>
       </c>
       <c r="P754" s="1" t="s">
         <v>2157</v>
@@ -50460,7 +50474,7 @@
         <v>1472</v>
       </c>
       <c r="N759" s="4" t="s">
-        <v>5858</v>
+        <v>5857</v>
       </c>
       <c r="P759" s="1" t="s">
         <v>1472</v>
@@ -50551,7 +50565,7 @@
         <v>1285</v>
       </c>
       <c r="N761" s="4" t="s">
-        <v>5859</v>
+        <v>5858</v>
       </c>
       <c r="P761" s="1" t="s">
         <v>1285</v>
@@ -50648,7 +50662,7 @@
         <v>1879</v>
       </c>
       <c r="N763" s="4" t="s">
-        <v>5860</v>
+        <v>5859</v>
       </c>
       <c r="P763" s="1" t="s">
         <v>3282</v>
@@ -50686,7 +50700,7 @@
         <v>2095</v>
       </c>
       <c r="N764" s="4" t="s">
-        <v>5861</v>
+        <v>5860</v>
       </c>
       <c r="P764" s="1" t="s">
         <v>3283</v>
@@ -50724,7 +50738,7 @@
         <v>1605</v>
       </c>
       <c r="N765" s="4" t="s">
-        <v>5862</v>
+        <v>5861</v>
       </c>
       <c r="P765" s="1" t="s">
         <v>1605</v>
@@ -50812,7 +50826,7 @@
         <v>1651</v>
       </c>
       <c r="N767" s="4" t="s">
-        <v>5863</v>
+        <v>5862</v>
       </c>
       <c r="P767" s="1" t="s">
         <v>1652</v>
@@ -50906,7 +50920,7 @@
         <v>2265</v>
       </c>
       <c r="N769" s="4" t="s">
-        <v>5864</v>
+        <v>5863</v>
       </c>
       <c r="P769" s="1" t="s">
         <v>2265</v>
@@ -50953,7 +50967,7 @@
         <v>1728</v>
       </c>
       <c r="N770" s="4" t="s">
-        <v>5865</v>
+        <v>5864</v>
       </c>
       <c r="P770" s="1" t="s">
         <v>1728</v>
@@ -51000,7 +51014,7 @@
         <v>1514</v>
       </c>
       <c r="N771" s="4" t="s">
-        <v>5866</v>
+        <v>5865</v>
       </c>
       <c r="P771" s="1" t="s">
         <v>1515</v>
@@ -51091,7 +51105,7 @@
         <v>2012</v>
       </c>
       <c r="N773" s="4" t="s">
-        <v>5867</v>
+        <v>5866</v>
       </c>
       <c r="P773" s="1" t="s">
         <v>2012</v>
@@ -51132,7 +51146,7 @@
         <v>1825</v>
       </c>
       <c r="N774" s="4" t="s">
-        <v>5868</v>
+        <v>5867</v>
       </c>
       <c r="P774" s="1" t="s">
         <v>1825</v>
@@ -51182,7 +51196,7 @@
         <v>2235</v>
       </c>
       <c r="N775" s="4" t="s">
-        <v>5869</v>
+        <v>5868</v>
       </c>
       <c r="P775" s="1" t="s">
         <v>2235</v>
@@ -51238,7 +51252,7 @@
         <v>1756</v>
       </c>
       <c r="N776" s="4" t="s">
-        <v>5870</v>
+        <v>5869</v>
       </c>
       <c r="P776" s="1" t="s">
         <v>1756</v>
@@ -51397,7 +51411,7 @@
         <v>1012</v>
       </c>
       <c r="N779" s="4" t="s">
-        <v>5871</v>
+        <v>5870</v>
       </c>
       <c r="P779" s="1" t="s">
         <v>1012</v>
@@ -51447,7 +51461,7 @@
         <v>2250</v>
       </c>
       <c r="N780" s="4" t="s">
-        <v>5872</v>
+        <v>5871</v>
       </c>
       <c r="P780" s="1" t="s">
         <v>2250</v>
@@ -51582,7 +51596,7 @@
         <v>1693</v>
       </c>
       <c r="N783" s="4" t="s">
-        <v>5873</v>
+        <v>5872</v>
       </c>
       <c r="P783" s="1" t="s">
         <v>1693</v>
@@ -51717,7 +51731,7 @@
         <v>2625</v>
       </c>
       <c r="N786" s="4" t="s">
-        <v>5874</v>
+        <v>5873</v>
       </c>
       <c r="P786" s="1" t="s">
         <v>2625</v>
@@ -51805,7 +51819,7 @@
         <v>1828</v>
       </c>
       <c r="N788" s="4" t="s">
-        <v>5875</v>
+        <v>5874</v>
       </c>
       <c r="P788" s="1" t="s">
         <v>1828</v>
@@ -52096,7 +52110,7 @@
         <v>1399</v>
       </c>
       <c r="N794" s="4" t="s">
-        <v>5876</v>
+        <v>5875</v>
       </c>
       <c r="P794" s="1" t="s">
         <v>1399</v>
@@ -52184,7 +52198,7 @@
         <v>1864</v>
       </c>
       <c r="N796" s="4" t="s">
-        <v>5877</v>
+        <v>5876</v>
       </c>
       <c r="P796" s="1" t="s">
         <v>1865</v>
@@ -52231,7 +52245,7 @@
         <v>2029</v>
       </c>
       <c r="N797" s="4" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="P797" s="1" t="s">
         <v>2029</v>
@@ -52272,7 +52286,7 @@
         <v>1567</v>
       </c>
       <c r="N798" s="4" t="s">
-        <v>5879</v>
+        <v>5878</v>
       </c>
       <c r="P798" s="1" t="s">
         <v>1567</v>
@@ -52422,7 +52436,7 @@
         <v>2191</v>
       </c>
       <c r="N801" s="4" t="s">
-        <v>5880</v>
+        <v>5879</v>
       </c>
       <c r="P801" s="1" t="s">
         <v>2191</v>
@@ -52463,7 +52477,7 @@
         <v>1582</v>
       </c>
       <c r="N802" s="4" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
       <c r="P802" s="1" t="s">
         <v>1582</v>
@@ -52507,7 +52521,7 @@
         <v>1959</v>
       </c>
       <c r="N803" s="4" t="s">
-        <v>5882</v>
+        <v>5881</v>
       </c>
       <c r="P803" s="1" t="s">
         <v>1959</v>
@@ -52548,7 +52562,7 @@
         <v>2013</v>
       </c>
       <c r="N804" s="4" t="s">
-        <v>5883</v>
+        <v>5882</v>
       </c>
       <c r="P804" s="1" t="s">
         <v>2013</v>
@@ -52595,7 +52609,7 @@
         <v>1521</v>
       </c>
       <c r="N805" s="4" t="s">
-        <v>5884</v>
+        <v>5883</v>
       </c>
       <c r="P805" s="1" t="s">
         <v>1521</v>
@@ -52686,7 +52700,7 @@
         <v>1813</v>
       </c>
       <c r="N807" s="4" t="s">
-        <v>5885</v>
+        <v>5884</v>
       </c>
       <c r="P807" s="1" t="s">
         <v>1813</v>
@@ -52824,7 +52838,7 @@
         <v>1553</v>
       </c>
       <c r="N810" s="4" t="s">
-        <v>5886</v>
+        <v>5885</v>
       </c>
       <c r="P810" s="1" t="s">
         <v>1553</v>
@@ -52921,7 +52935,7 @@
         <v>1831</v>
       </c>
       <c r="N812" s="4" t="s">
-        <v>5887</v>
+        <v>5886</v>
       </c>
       <c r="P812" s="1" t="s">
         <v>1831</v>
@@ -52965,7 +52979,7 @@
         <v>1380</v>
       </c>
       <c r="N813" s="4" t="s">
-        <v>5888</v>
+        <v>5887</v>
       </c>
       <c r="P813" s="1" t="s">
         <v>1380</v>
@@ -53059,7 +53073,7 @@
         <v>3772</v>
       </c>
       <c r="N815" s="4" t="s">
-        <v>5889</v>
+        <v>5888</v>
       </c>
       <c r="P815" s="5" t="s">
         <v>3772</v>
@@ -53203,7 +53217,7 @@
         <v>1584</v>
       </c>
       <c r="N818" s="4" t="s">
-        <v>5890</v>
+        <v>5889</v>
       </c>
       <c r="P818" s="1" t="s">
         <v>1584</v>
@@ -53247,7 +53261,7 @@
         <v>1210</v>
       </c>
       <c r="N819" s="4" t="s">
-        <v>5891</v>
+        <v>5890</v>
       </c>
       <c r="P819" s="1" t="s">
         <v>1210</v>
@@ -53291,7 +53305,7 @@
         <v>2049</v>
       </c>
       <c r="N820" s="4" t="s">
-        <v>5892</v>
+        <v>5891</v>
       </c>
       <c r="P820" s="1" t="s">
         <v>2049</v>
@@ -53423,7 +53437,7 @@
         <v>1733</v>
       </c>
       <c r="N823" s="4" t="s">
-        <v>5893</v>
+        <v>5892</v>
       </c>
       <c r="P823" s="1" t="s">
         <v>1733</v>
@@ -53467,7 +53481,7 @@
         <v>1680</v>
       </c>
       <c r="N824" s="4" t="s">
-        <v>5894</v>
+        <v>5893</v>
       </c>
       <c r="P824" s="1" t="s">
         <v>1680</v>
@@ -53511,7 +53525,7 @@
         <v>2140</v>
       </c>
       <c r="N825" s="4" t="s">
-        <v>5895</v>
+        <v>5894</v>
       </c>
       <c r="P825" s="1" t="s">
         <v>2141</v>
@@ -53599,7 +53613,7 @@
         <v>1735</v>
       </c>
       <c r="N827" s="4" t="s">
-        <v>5896</v>
+        <v>5895</v>
       </c>
       <c r="P827" s="1" t="s">
         <v>1735</v>
@@ -53672,7 +53686,7 @@
         <v>2301</v>
       </c>
       <c r="N829" s="4" t="s">
-        <v>5897</v>
+        <v>5896</v>
       </c>
       <c r="P829" s="1" t="s">
         <v>2301</v>
@@ -53713,7 +53727,7 @@
         <v>1318</v>
       </c>
       <c r="N830" s="4" t="s">
-        <v>6041</v>
+        <v>6040</v>
       </c>
       <c r="P830" s="1" t="s">
         <v>1318</v>
@@ -53757,7 +53771,7 @@
         <v>2109</v>
       </c>
       <c r="N831" s="4" t="s">
-        <v>5898</v>
+        <v>5897</v>
       </c>
       <c r="P831" s="1" t="s">
         <v>2110</v>
@@ -53804,7 +53818,7 @@
         <v>2051</v>
       </c>
       <c r="N832" s="4" t="s">
-        <v>5899</v>
+        <v>5898</v>
       </c>
       <c r="P832" s="1" t="s">
         <v>2051</v>
@@ -53848,7 +53862,7 @@
         <v>1302</v>
       </c>
       <c r="N833" s="4" t="s">
-        <v>5900</v>
+        <v>5899</v>
       </c>
       <c r="P833" s="1" t="s">
         <v>1303</v>
@@ -53886,7 +53900,7 @@
         <v>1835</v>
       </c>
       <c r="N834" s="4" t="s">
-        <v>5901</v>
+        <v>5900</v>
       </c>
       <c r="P834" s="1" t="s">
         <v>1835</v>
@@ -54024,7 +54038,7 @@
         <v>1489</v>
       </c>
       <c r="N837" s="4" t="s">
-        <v>5902</v>
+        <v>5901</v>
       </c>
       <c r="P837" s="1" t="s">
         <v>1489</v>
@@ -54056,7 +54070,7 @@
         <v>2112</v>
       </c>
       <c r="N838" s="4" t="s">
-        <v>5903</v>
+        <v>5902</v>
       </c>
       <c r="P838" s="1" t="s">
         <v>2112</v>
@@ -54100,7 +54114,7 @@
         <v>1784</v>
       </c>
       <c r="N839" s="4" t="s">
-        <v>5904</v>
+        <v>5903</v>
       </c>
       <c r="P839" s="1" t="s">
         <v>1784</v>
@@ -54141,7 +54155,7 @@
         <v>2269</v>
       </c>
       <c r="N840" s="4" t="s">
-        <v>5905</v>
+        <v>5904</v>
       </c>
       <c r="P840" s="1" t="s">
         <v>2269</v>
@@ -54308,7 +54322,7 @@
         <v>2308</v>
       </c>
       <c r="N844" s="4" t="s">
-        <v>5906</v>
+        <v>5905</v>
       </c>
       <c r="P844" s="1" t="s">
         <v>2308</v>
@@ -54352,7 +54366,7 @@
         <v>1658</v>
       </c>
       <c r="N845" s="4" t="s">
-        <v>5907</v>
+        <v>5906</v>
       </c>
       <c r="P845" s="1" t="s">
         <v>1659</v>
@@ -54399,7 +54413,7 @@
         <v>1624</v>
       </c>
       <c r="N846" s="4" t="s">
-        <v>5908</v>
+        <v>5907</v>
       </c>
       <c r="P846" s="1" t="s">
         <v>1624</v>
@@ -54480,6 +54494,9 @@
       <c r="K848" s="1">
         <v>15</v>
       </c>
+      <c r="L848" s="1">
+        <v>1</v>
+      </c>
       <c r="M848" s="1" t="s">
         <v>2486</v>
       </c>
@@ -54572,7 +54589,7 @@
         <v>1893</v>
       </c>
       <c r="N850" s="4" t="s">
-        <v>5909</v>
+        <v>5908</v>
       </c>
       <c r="P850" s="1" t="s">
         <v>1894</v>
@@ -54616,7 +54633,7 @@
         <v>2031</v>
       </c>
       <c r="N851" s="4" t="s">
-        <v>5910</v>
+        <v>5909</v>
       </c>
       <c r="P851" s="1" t="s">
         <v>2031</v>
@@ -54707,7 +54724,7 @@
         <v>1304</v>
       </c>
       <c r="N853" s="4" t="s">
-        <v>3217</v>
+        <v>6049</v>
       </c>
       <c r="P853" s="1" t="s">
         <v>3286</v>
@@ -54716,115 +54733,112 @@
         <v>3123</v>
       </c>
     </row>
-    <row r="854" spans="2:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B854" s="15" t="s">
+    <row r="854" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B854" s="8" t="s">
         <v>3407</v>
       </c>
-      <c r="C854" s="6">
+      <c r="C854" s="1">
         <v>1981</v>
       </c>
-      <c r="D854" s="6" t="s">
+      <c r="D854" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="E854" s="6" t="s">
-        <v>1163</v>
-      </c>
-      <c r="H854" s="6">
-        <v>1</v>
-      </c>
-      <c r="K854" s="6">
+      <c r="E854" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H854" s="1">
+        <v>1</v>
+      </c>
+      <c r="K854" s="1">
         <v>12</v>
       </c>
-      <c r="L854" s="6">
-        <v>1</v>
-      </c>
-      <c r="M854" s="6" t="s">
+      <c r="L854" s="1">
+        <v>1</v>
+      </c>
+      <c r="M854" s="1" t="s">
         <v>1559</v>
       </c>
-      <c r="N854" s="17" t="s">
+      <c r="N854" s="4" t="s">
         <v>3217</v>
       </c>
-      <c r="O854" s="17"/>
-      <c r="P854" s="6" t="s">
+      <c r="P854" s="1" t="s">
         <v>3287</v>
       </c>
-      <c r="R854" s="6" t="s">
+      <c r="R854" s="1" t="s">
         <v>3123</v>
       </c>
     </row>
-    <row r="855" spans="2:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B855" s="15" t="s">
+    <row r="855" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B855" s="8" t="s">
         <v>4666</v>
       </c>
-      <c r="C855" s="6">
+      <c r="C855" s="1">
         <v>1982</v>
       </c>
-      <c r="D855" s="6" t="s">
+      <c r="D855" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="E855" s="6" t="s">
-        <v>1163</v>
-      </c>
-      <c r="H855" s="6">
-        <v>1</v>
-      </c>
-      <c r="K855" s="6">
+      <c r="E855" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H855" s="1">
+        <v>1</v>
+      </c>
+      <c r="K855" s="1">
         <v>11</v>
       </c>
-      <c r="L855" s="6">
-        <v>1</v>
-      </c>
-      <c r="M855" s="6" t="s">
+      <c r="L855" s="1">
+        <v>1</v>
+      </c>
+      <c r="M855" s="1" t="s">
         <v>1779</v>
       </c>
-      <c r="N855" s="17" t="s">
+      <c r="N855" s="4" t="s">
+        <v>6050</v>
+      </c>
+      <c r="P855" s="1" t="s">
+        <v>3288</v>
+      </c>
+      <c r="R855" s="1" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="856" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B856" s="8" t="s">
+        <v>4667</v>
+      </c>
+      <c r="C856" s="1">
+        <v>1983</v>
+      </c>
+      <c r="D856" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E856" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H856" s="1">
+        <v>1</v>
+      </c>
+      <c r="K856" s="1">
+        <v>12</v>
+      </c>
+      <c r="L856" s="1">
+        <v>1</v>
+      </c>
+      <c r="M856" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="N856" s="4" t="s">
         <v>3217</v>
       </c>
-      <c r="O855" s="17"/>
-      <c r="P855" s="6" t="s">
-        <v>3288</v>
-      </c>
-      <c r="R855" s="6" t="s">
+      <c r="P856" s="1" t="s">
+        <v>3289</v>
+      </c>
+      <c r="R856" s="1" t="s">
         <v>3123</v>
       </c>
     </row>
-    <row r="856" spans="2:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B856" s="15" t="s">
-        <v>4667</v>
-      </c>
-      <c r="C856" s="6">
-        <v>1983</v>
-      </c>
-      <c r="D856" s="6" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E856" s="6" t="s">
-        <v>1163</v>
-      </c>
-      <c r="H856" s="6">
-        <v>1</v>
-      </c>
-      <c r="K856" s="6">
-        <v>12</v>
-      </c>
-      <c r="L856" s="6">
-        <v>1</v>
-      </c>
-      <c r="M856" s="6" t="s">
-        <v>1992</v>
-      </c>
-      <c r="N856" s="17" t="s">
-        <v>3217</v>
-      </c>
-      <c r="O856" s="17"/>
-      <c r="P856" s="6" t="s">
-        <v>3289</v>
-      </c>
-      <c r="R856" s="6" t="s">
-        <v>3123</v>
-      </c>
-    </row>
-    <row r="857" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="857" spans="2:29" ht="32" x14ac:dyDescent="0.2">
       <c r="B857" s="8" t="s">
         <v>4668</v>
       </c>
@@ -54850,7 +54864,7 @@
         <v>2201</v>
       </c>
       <c r="N857" s="4" t="s">
-        <v>3217</v>
+        <v>6051</v>
       </c>
       <c r="P857" s="1" t="s">
         <v>3290</v>
@@ -54885,7 +54899,7 @@
         <v>2054</v>
       </c>
       <c r="N858" s="4" t="s">
-        <v>5911</v>
+        <v>5910</v>
       </c>
       <c r="P858" s="1" t="s">
         <v>2054</v>
@@ -54929,7 +54943,7 @@
         <v>1695</v>
       </c>
       <c r="N859" s="4" t="s">
-        <v>5912</v>
+        <v>5911</v>
       </c>
       <c r="P859" s="1" t="s">
         <v>1695</v>
@@ -55055,7 +55069,7 @@
         <v>1755</v>
       </c>
       <c r="N862" s="4" t="s">
-        <v>5913</v>
+        <v>5912</v>
       </c>
       <c r="P862" s="1" t="s">
         <v>3291</v>
@@ -55093,7 +55107,7 @@
         <v>1976</v>
       </c>
       <c r="N863" s="4" t="s">
-        <v>5914</v>
+        <v>5913</v>
       </c>
       <c r="P863" s="1" t="s">
         <v>3292</v>
@@ -55131,7 +55145,7 @@
         <v>2228</v>
       </c>
       <c r="N864" s="4" t="s">
-        <v>5915</v>
+        <v>5914</v>
       </c>
       <c r="P864" s="1" t="s">
         <v>3293</v>
@@ -55169,7 +55183,7 @@
         <v>1769</v>
       </c>
       <c r="N865" s="4" t="s">
-        <v>5916</v>
+        <v>5915</v>
       </c>
       <c r="P865" s="1" t="s">
         <v>1769</v>
@@ -55348,7 +55362,7 @@
         <v>3318</v>
       </c>
       <c r="N869" s="4" t="s">
-        <v>5917</v>
+        <v>5916</v>
       </c>
       <c r="P869" s="1" t="s">
         <v>3318</v>
@@ -55383,7 +55397,7 @@
         <v>2193</v>
       </c>
       <c r="N870" s="4" t="s">
-        <v>5918</v>
+        <v>5917</v>
       </c>
       <c r="P870" s="1" t="s">
         <v>2193</v>
@@ -55471,7 +55485,7 @@
         <v>2143</v>
       </c>
       <c r="N872" s="4" t="s">
-        <v>5919</v>
+        <v>5918</v>
       </c>
       <c r="P872" s="1" t="s">
         <v>2143</v>
@@ -55518,7 +55532,7 @@
         <v>1804</v>
       </c>
       <c r="N873" s="4" t="s">
-        <v>5920</v>
+        <v>5919</v>
       </c>
       <c r="P873" s="1" t="s">
         <v>1804</v>
@@ -55747,7 +55761,7 @@
         <v>1523</v>
       </c>
       <c r="N878" s="4" t="s">
-        <v>5921</v>
+        <v>5920</v>
       </c>
       <c r="P878" s="1" t="s">
         <v>1523</v>
@@ -55794,7 +55808,7 @@
         <v>1525</v>
       </c>
       <c r="N879" s="4" t="s">
-        <v>5922</v>
+        <v>5921</v>
       </c>
       <c r="P879" s="1" t="s">
         <v>1525</v>
@@ -55838,7 +55852,7 @@
         <v>1255</v>
       </c>
       <c r="N880" s="4" t="s">
-        <v>5923</v>
+        <v>5922</v>
       </c>
       <c r="P880" s="1" t="s">
         <v>1256</v>
@@ -55873,7 +55887,7 @@
         <v>2113</v>
       </c>
       <c r="N881" s="4" t="s">
-        <v>5924</v>
+        <v>5923</v>
       </c>
       <c r="P881" s="1" t="s">
         <v>2113</v>
@@ -55970,7 +55984,7 @@
         <v>1320</v>
       </c>
       <c r="N883" s="4" t="s">
-        <v>5925</v>
+        <v>5924</v>
       </c>
       <c r="P883" s="1" t="s">
         <v>1320</v>
@@ -56161,7 +56175,7 @@
         <v>1305</v>
       </c>
       <c r="N887" s="4" t="s">
-        <v>5926</v>
+        <v>5925</v>
       </c>
       <c r="P887" s="1" t="s">
         <v>1305</v>
@@ -56208,7 +56222,7 @@
         <v>2056</v>
       </c>
       <c r="N888" s="4" t="s">
-        <v>5927</v>
+        <v>5926</v>
       </c>
       <c r="P888" s="1" t="s">
         <v>2056</v>
@@ -56255,7 +56269,7 @@
         <v>1608</v>
       </c>
       <c r="N889" s="4" t="s">
-        <v>5928</v>
+        <v>5927</v>
       </c>
       <c r="P889" s="1" t="s">
         <v>1608</v>
@@ -56299,7 +56313,7 @@
         <v>1944</v>
       </c>
       <c r="N890" s="4" t="s">
-        <v>5929</v>
+        <v>5928</v>
       </c>
       <c r="P890" s="1" t="s">
         <v>1944</v>
@@ -56343,7 +56357,7 @@
         <v>2147</v>
       </c>
       <c r="N891" s="4" t="s">
-        <v>5930</v>
+        <v>5929</v>
       </c>
       <c r="P891" s="1" t="s">
         <v>2148</v>
@@ -56387,7 +56401,7 @@
         <v>2127</v>
       </c>
       <c r="N892" s="4" t="s">
-        <v>5931</v>
+        <v>5930</v>
       </c>
       <c r="P892" s="1" t="s">
         <v>2127</v>
@@ -56434,7 +56448,7 @@
         <v>1215</v>
       </c>
       <c r="N893" s="4" t="s">
-        <v>5932</v>
+        <v>5931</v>
       </c>
       <c r="P893" s="1" t="s">
         <v>1215</v>
@@ -56516,7 +56530,7 @@
         <v>3763</v>
       </c>
       <c r="N895" s="4" t="s">
-        <v>5933</v>
+        <v>5932</v>
       </c>
       <c r="P895" s="5" t="s">
         <v>3763</v>
@@ -56716,7 +56730,7 @@
         <v>2081</v>
       </c>
       <c r="N899" s="4" t="s">
-        <v>5934</v>
+        <v>5933</v>
       </c>
       <c r="P899" s="1" t="s">
         <v>2082</v>
@@ -56804,7 +56818,7 @@
         <v>1323</v>
       </c>
       <c r="N901" s="4" t="s">
-        <v>5935</v>
+        <v>5934</v>
       </c>
       <c r="P901" s="1" t="s">
         <v>1323</v>
@@ -56851,7 +56865,7 @@
         <v>2175</v>
       </c>
       <c r="N902" s="4" t="s">
-        <v>5936</v>
+        <v>5935</v>
       </c>
       <c r="P902" s="1" t="s">
         <v>2175</v>
@@ -56945,7 +56959,7 @@
         <v>1883</v>
       </c>
       <c r="N904" s="4" t="s">
-        <v>5937</v>
+        <v>5936</v>
       </c>
       <c r="P904" s="1" t="s">
         <v>1884</v>
@@ -56995,7 +57009,7 @@
         <v>1668</v>
       </c>
       <c r="N905" s="4" t="s">
-        <v>5938</v>
+        <v>5937</v>
       </c>
       <c r="P905" s="1" t="s">
         <v>1669</v>
@@ -57039,7 +57053,7 @@
         <v>1226</v>
       </c>
       <c r="N906" s="4" t="s">
-        <v>5939</v>
+        <v>5938</v>
       </c>
       <c r="P906" s="1" t="s">
         <v>1226</v>
@@ -57215,7 +57229,7 @@
         <v>1247</v>
       </c>
       <c r="N910" s="4" t="s">
-        <v>5940</v>
+        <v>5939</v>
       </c>
       <c r="P910" s="1" t="s">
         <v>1247</v>
@@ -57514,7 +57528,7 @@
         <v>1590</v>
       </c>
       <c r="N917" s="4" t="s">
-        <v>5941</v>
+        <v>5940</v>
       </c>
       <c r="P917" s="1" t="s">
         <v>1591</v>
@@ -57711,7 +57725,7 @@
         <v>2151</v>
       </c>
       <c r="N921" s="4" t="s">
-        <v>5942</v>
+        <v>5941</v>
       </c>
       <c r="P921" s="1" t="s">
         <v>2152</v>
@@ -57840,7 +57854,7 @@
         <v>2018</v>
       </c>
       <c r="N924" s="4" t="s">
-        <v>5943</v>
+        <v>5942</v>
       </c>
       <c r="P924" s="1" t="s">
         <v>2019</v>
@@ -57890,7 +57904,7 @@
         <v>1594</v>
       </c>
       <c r="N925" s="4" t="s">
-        <v>5944</v>
+        <v>5943</v>
       </c>
       <c r="P925" s="1" t="s">
         <v>1594</v>
@@ -58013,7 +58027,7 @@
         <v>1228</v>
       </c>
       <c r="N928" s="4" t="s">
-        <v>5945</v>
+        <v>5944</v>
       </c>
       <c r="P928" s="1" t="s">
         <v>1228</v>
@@ -58060,7 +58074,7 @@
         <v>1505</v>
       </c>
       <c r="N929" s="4" t="s">
-        <v>5946</v>
+        <v>5945</v>
       </c>
       <c r="P929" s="1" t="s">
         <v>1505</v>
@@ -58148,7 +58162,7 @@
         <v>1361</v>
       </c>
       <c r="N931" s="4" t="s">
-        <v>5947</v>
+        <v>5946</v>
       </c>
       <c r="P931" s="1" t="s">
         <v>1361</v>
@@ -58192,7 +58206,7 @@
         <v>2286</v>
       </c>
       <c r="N932" s="4" t="s">
-        <v>5948</v>
+        <v>5947</v>
       </c>
       <c r="P932" s="1" t="s">
         <v>2286</v>
@@ -58236,7 +58250,7 @@
         <v>2034</v>
       </c>
       <c r="N933" s="4" t="s">
-        <v>5949</v>
+        <v>5948</v>
       </c>
       <c r="P933" s="1" t="s">
         <v>2034</v>
@@ -58618,7 +58632,7 @@
         <v>1639</v>
       </c>
       <c r="N941" s="4" t="s">
-        <v>6038</v>
+        <v>6037</v>
       </c>
       <c r="P941" s="1" t="s">
         <v>1639</v>
@@ -58674,7 +58688,7 @@
         <v>1159</v>
       </c>
       <c r="N942" s="4" t="s">
-        <v>6039</v>
+        <v>6038</v>
       </c>
       <c r="P942" s="1" t="s">
         <v>1159</v>
@@ -58727,7 +58741,7 @@
         <v>1908</v>
       </c>
       <c r="N943" s="4" t="s">
-        <v>5950</v>
+        <v>5949</v>
       </c>
       <c r="P943" s="1" t="s">
         <v>1908</v>
@@ -58774,7 +58788,7 @@
         <v>2115</v>
       </c>
       <c r="N944" s="4" t="s">
-        <v>5951</v>
+        <v>5950</v>
       </c>
       <c r="P944" s="1" t="s">
         <v>2115</v>
@@ -58883,7 +58897,7 @@
         <v>1932</v>
       </c>
       <c r="N946" s="4" t="s">
-        <v>5952</v>
+        <v>5951</v>
       </c>
       <c r="P946" s="1" t="s">
         <v>1932</v>
@@ -59103,7 +59117,7 @@
         <v>2123</v>
       </c>
       <c r="N951" s="4" t="s">
-        <v>5953</v>
+        <v>5952</v>
       </c>
       <c r="P951" s="1" t="s">
         <v>2123</v>
@@ -59238,7 +59252,7 @@
         <v>1996</v>
       </c>
       <c r="N954" s="4" t="s">
-        <v>5954</v>
+        <v>5953</v>
       </c>
       <c r="P954" s="1" t="s">
         <v>1996</v>
@@ -59461,7 +59475,7 @@
         <v>1401</v>
       </c>
       <c r="N959" s="4" t="s">
-        <v>5955</v>
+        <v>5954</v>
       </c>
       <c r="P959" s="1" t="s">
         <v>1401</v>
@@ -59498,11 +59512,14 @@
       <c r="K960" s="1">
         <v>14</v>
       </c>
+      <c r="L960" s="1">
+        <v>2</v>
+      </c>
       <c r="M960" s="1" t="s">
         <v>3015</v>
       </c>
       <c r="N960" s="4" t="s">
-        <v>5956</v>
+        <v>5955</v>
       </c>
       <c r="P960" s="1" t="s">
         <v>3015</v>
@@ -59590,7 +59607,7 @@
         <v>2043</v>
       </c>
       <c r="N962" s="4" t="s">
-        <v>5957</v>
+        <v>5956</v>
       </c>
       <c r="P962" s="1" t="s">
         <v>2043</v>
@@ -59637,7 +59654,7 @@
         <v>1403</v>
       </c>
       <c r="N963" s="4" t="s">
-        <v>5958</v>
+        <v>5957</v>
       </c>
       <c r="P963" s="1" t="s">
         <v>1403</v>
@@ -59678,7 +59695,7 @@
         <v>2161</v>
       </c>
       <c r="N964" s="4" t="s">
-        <v>5959</v>
+        <v>5958</v>
       </c>
       <c r="P964" s="1" t="s">
         <v>2162</v>
@@ -59907,7 +59924,7 @@
         <v>1250</v>
       </c>
       <c r="N969" s="4" t="s">
-        <v>5960</v>
+        <v>5959</v>
       </c>
       <c r="P969" s="1" t="s">
         <v>1250</v>
@@ -60024,7 +60041,7 @@
         <v>1772</v>
       </c>
       <c r="N972" s="4" t="s">
-        <v>5961</v>
+        <v>5960</v>
       </c>
       <c r="P972" s="1" t="s">
         <v>1772</v>
@@ -60378,7 +60395,7 @@
         <v>1808</v>
       </c>
       <c r="N981" s="4" t="s">
-        <v>5962</v>
+        <v>5961</v>
       </c>
       <c r="P981" s="1" t="s">
         <v>1808</v>
@@ -60425,7 +60442,7 @@
         <v>2177</v>
       </c>
       <c r="N982" s="4" t="s">
-        <v>5963</v>
+        <v>5962</v>
       </c>
       <c r="P982" s="1" t="s">
         <v>2177</v>
@@ -60478,7 +60495,7 @@
         <v>1948</v>
       </c>
       <c r="N983" s="4" t="s">
-        <v>5964</v>
+        <v>5963</v>
       </c>
       <c r="P983" s="1" t="s">
         <v>1948</v>
@@ -60654,7 +60671,7 @@
         <v>1699</v>
       </c>
       <c r="N987" s="4" t="s">
-        <v>5965</v>
+        <v>5964</v>
       </c>
       <c r="P987" s="1" t="s">
         <v>1699</v>
@@ -60698,7 +60715,7 @@
         <v>1493</v>
       </c>
       <c r="N988" s="4" t="s">
-        <v>5966</v>
+        <v>5965</v>
       </c>
       <c r="P988" s="1" t="s">
         <v>1493</v>
@@ -60742,7 +60759,7 @@
         <v>1966</v>
       </c>
       <c r="N989" s="4" t="s">
-        <v>5967</v>
+        <v>5966</v>
       </c>
       <c r="P989" s="1" t="s">
         <v>1966</v>
@@ -60839,7 +60856,7 @@
         <v>1157</v>
       </c>
       <c r="N991" s="4" t="s">
-        <v>5968</v>
+        <v>5967</v>
       </c>
       <c r="P991" s="1" t="s">
         <v>2253</v>
@@ -61021,7 +61038,7 @@
         <v>2064</v>
       </c>
       <c r="N995" s="4" t="s">
-        <v>5969</v>
+        <v>5968</v>
       </c>
       <c r="P995" s="1" t="s">
         <v>2064</v>
@@ -61203,7 +61220,7 @@
         <v>1967</v>
       </c>
       <c r="N999" s="4" t="s">
-        <v>5970</v>
+        <v>5969</v>
       </c>
       <c r="P999" s="1" t="s">
         <v>1967</v>
@@ -61256,7 +61273,7 @@
         <v>1675</v>
       </c>
       <c r="N1000" s="4" t="s">
-        <v>5971</v>
+        <v>5970</v>
       </c>
       <c r="P1000" s="1" t="s">
         <v>1675</v>
@@ -61350,7 +61367,7 @@
         <v>1982</v>
       </c>
       <c r="N1002" s="4" t="s">
-        <v>5972</v>
+        <v>5971</v>
       </c>
       <c r="P1002" s="1" t="s">
         <v>1982</v>
@@ -61620,7 +61637,7 @@
         <v>1532</v>
       </c>
       <c r="N1008" s="4" t="s">
-        <v>5973</v>
+        <v>5972</v>
       </c>
       <c r="P1008" s="1" t="s">
         <v>1532</v>
@@ -61661,7 +61678,7 @@
         <v>2287</v>
       </c>
       <c r="N1009" s="4" t="s">
-        <v>5974</v>
+        <v>5973</v>
       </c>
       <c r="P1009" s="1" t="s">
         <v>2287</v>
@@ -61752,7 +61769,7 @@
         <v>1341</v>
       </c>
       <c r="N1011" s="4" t="s">
-        <v>5975</v>
+        <v>5974</v>
       </c>
       <c r="P1011" s="1" t="s">
         <v>1341</v>
@@ -61884,7 +61901,7 @@
         <v>1775</v>
       </c>
       <c r="N1014" s="4" t="s">
-        <v>5976</v>
+        <v>5975</v>
       </c>
       <c r="P1014" s="1" t="s">
         <v>1775</v>
@@ -62169,7 +62186,7 @@
         <v>1899</v>
       </c>
       <c r="N1020" s="4" t="s">
-        <v>6042</v>
+        <v>6041</v>
       </c>
       <c r="P1020" s="1" t="s">
         <v>1899</v>
@@ -62427,7 +62444,7 @@
         <v>3299</v>
       </c>
       <c r="N1026" s="4" t="s">
-        <v>5977</v>
+        <v>5976</v>
       </c>
       <c r="P1026" s="1" t="s">
         <v>3299</v>
@@ -62468,7 +62485,7 @@
         <v>1702</v>
       </c>
       <c r="N1027" s="4" t="s">
-        <v>5978</v>
+        <v>5977</v>
       </c>
       <c r="P1027" s="1" t="s">
         <v>1702</v>
@@ -62509,7 +62526,7 @@
         <v>1683</v>
       </c>
       <c r="N1028" s="4" t="s">
-        <v>5979</v>
+        <v>5978</v>
       </c>
       <c r="P1028" s="1" t="s">
         <v>1683</v>
@@ -62665,7 +62682,7 @@
         <v>1957</v>
       </c>
       <c r="N1031" s="4" t="s">
-        <v>5980</v>
+        <v>5979</v>
       </c>
       <c r="P1031" s="1" t="s">
         <v>1957</v>
@@ -62753,7 +62770,7 @@
         <v>1251</v>
       </c>
       <c r="N1033" s="4" t="s">
-        <v>5981</v>
+        <v>5980</v>
       </c>
       <c r="P1033" s="1" t="s">
         <v>1251</v>
@@ -62841,7 +62858,7 @@
         <v>2165</v>
       </c>
       <c r="N1035" s="4" t="s">
-        <v>5982</v>
+        <v>5981</v>
       </c>
       <c r="P1035" s="1" t="s">
         <v>2165</v>
@@ -62885,7 +62902,7 @@
         <v>1569</v>
       </c>
       <c r="N1036" s="4" t="s">
-        <v>5983</v>
+        <v>5982</v>
       </c>
       <c r="P1036" s="1" t="s">
         <v>1569</v>
@@ -62926,7 +62943,7 @@
         <v>1282</v>
       </c>
       <c r="N1037" s="4" t="s">
-        <v>5984</v>
+        <v>5983</v>
       </c>
       <c r="P1037" s="1" t="s">
         <v>1282</v>
@@ -63014,7 +63031,7 @@
         <v>2179</v>
       </c>
       <c r="N1039" s="4" t="s">
-        <v>5985</v>
+        <v>5984</v>
       </c>
       <c r="P1039" s="1" t="s">
         <v>2179</v>
@@ -63117,7 +63134,7 @@
         <v>1973</v>
       </c>
       <c r="N1041" s="4" t="s">
-        <v>5986</v>
+        <v>5985</v>
       </c>
       <c r="P1041" s="1" t="s">
         <v>1973</v>
@@ -63164,7 +63181,7 @@
         <v>1253</v>
       </c>
       <c r="N1042" s="4" t="s">
-        <v>5987</v>
+        <v>5986</v>
       </c>
       <c r="P1042" s="1" t="s">
         <v>1253</v>
@@ -63208,7 +63225,7 @@
         <v>1296</v>
       </c>
       <c r="N1043" s="4" t="s">
-        <v>5988</v>
+        <v>5987</v>
       </c>
       <c r="P1043" s="1" t="s">
         <v>1296</v>
@@ -63367,7 +63384,7 @@
         <v>1230</v>
       </c>
       <c r="N1046" s="4" t="s">
-        <v>5989</v>
+        <v>5988</v>
       </c>
       <c r="P1046" s="1" t="s">
         <v>1230</v>
@@ -63528,7 +63545,7 @@
         <v>1889</v>
       </c>
       <c r="N1050" s="4" t="s">
-        <v>5990</v>
+        <v>5989</v>
       </c>
       <c r="P1050" s="1" t="s">
         <v>1889</v>
@@ -63639,7 +63656,7 @@
         <v>3301</v>
       </c>
       <c r="N1053" s="4" t="s">
-        <v>5991</v>
+        <v>5990</v>
       </c>
       <c r="P1053" s="1" t="s">
         <v>3301</v>
@@ -63674,7 +63691,7 @@
         <v>3302</v>
       </c>
       <c r="N1054" s="4" t="s">
-        <v>5992</v>
+        <v>5991</v>
       </c>
       <c r="P1054" s="1" t="s">
         <v>3302</v>
@@ -63709,7 +63726,7 @@
         <v>1626</v>
       </c>
       <c r="N1055" s="4" t="s">
-        <v>5993</v>
+        <v>5992</v>
       </c>
       <c r="P1055" s="1" t="s">
         <v>1626</v>
@@ -63756,7 +63773,7 @@
         <v>1212</v>
       </c>
       <c r="N1056" s="4" t="s">
-        <v>5994</v>
+        <v>5993</v>
       </c>
       <c r="P1056" s="1" t="s">
         <v>1212</v>
@@ -63859,7 +63876,7 @@
         <v>1556</v>
       </c>
       <c r="N1058" s="4" t="s">
-        <v>5995</v>
+        <v>5994</v>
       </c>
       <c r="P1058" s="1" t="s">
         <v>1556</v>
@@ -63903,7 +63920,7 @@
         <v>1618</v>
       </c>
       <c r="N1059" s="4" t="s">
-        <v>5996</v>
+        <v>5995</v>
       </c>
       <c r="P1059" s="1" t="s">
         <v>1618</v>
@@ -64172,11 +64189,14 @@
       <c r="H1065" s="1">
         <v>1</v>
       </c>
+      <c r="L1065" s="1">
+        <v>3</v>
+      </c>
       <c r="M1065" s="1" t="s">
         <v>3756</v>
       </c>
       <c r="N1065" s="4" t="s">
-        <v>5997</v>
+        <v>5996</v>
       </c>
       <c r="P1065" s="1" t="s">
         <v>3756</v>
@@ -64267,7 +64287,7 @@
         <v>2183</v>
       </c>
       <c r="N1067" s="4" t="s">
-        <v>5998</v>
+        <v>5997</v>
       </c>
       <c r="P1067" s="1" t="s">
         <v>2183</v>
@@ -64449,7 +64469,7 @@
         <v>3765</v>
       </c>
       <c r="N1071" s="4" t="s">
-        <v>5999</v>
+        <v>5998</v>
       </c>
       <c r="P1071" s="1" t="s">
         <v>3765</v>
@@ -64528,7 +64548,7 @@
         <v>1574</v>
       </c>
       <c r="N1073" s="4" t="s">
-        <v>6000</v>
+        <v>5999</v>
       </c>
       <c r="P1073" s="1" t="s">
         <v>1574</v>
@@ -64616,7 +64636,7 @@
         <v>1886</v>
       </c>
       <c r="N1075" s="4" t="s">
-        <v>6001</v>
+        <v>6000</v>
       </c>
       <c r="P1075" s="1" t="s">
         <v>1886</v>
@@ -64804,7 +64824,7 @@
         <v>1927</v>
       </c>
       <c r="N1079" s="4" t="s">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="P1079" s="1" t="s">
         <v>1927</v>
@@ -64848,7 +64868,7 @@
         <v>2271</v>
       </c>
       <c r="N1080" s="4" t="s">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="P1080" s="1" t="s">
         <v>2271</v>
@@ -65151,7 +65171,7 @@
         <v>1792</v>
       </c>
       <c r="N1086" s="4" t="s">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="P1086" s="1" t="s">
         <v>1792</v>
@@ -65201,7 +65221,7 @@
         <v>1843</v>
       </c>
       <c r="N1087" s="4" t="s">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="P1087" s="1" t="s">
         <v>1843</v>
@@ -65292,7 +65312,7 @@
         <v>1777</v>
       </c>
       <c r="N1089" s="4" t="s">
-        <v>6006</v>
+        <v>6005</v>
       </c>
       <c r="P1089" s="1" t="s">
         <v>1777</v>
@@ -65418,7 +65438,7 @@
         <v>3304</v>
       </c>
       <c r="N1092" s="4" t="s">
-        <v>6007</v>
+        <v>6006</v>
       </c>
       <c r="P1092" s="1" t="s">
         <v>3304</v>
@@ -65728,7 +65748,7 @@
         <v>1844</v>
       </c>
       <c r="N1100" s="13" t="s">
-        <v>6008</v>
+        <v>6007</v>
       </c>
       <c r="O1100" s="13"/>
       <c r="P1100" s="1" t="s">
@@ -65829,7 +65849,7 @@
         <v>2938</v>
       </c>
       <c r="N1102" s="4" t="s">
-        <v>6009</v>
+        <v>6008</v>
       </c>
       <c r="P1102" s="1" t="s">
         <v>2938</v>
@@ -65876,7 +65896,7 @@
         <v>2200</v>
       </c>
       <c r="N1103" s="4" t="s">
-        <v>6010</v>
+        <v>6009</v>
       </c>
       <c r="P1103" s="1" t="s">
         <v>2200</v>
@@ -65920,7 +65940,7 @@
         <v>1930</v>
       </c>
       <c r="N1104" s="4" t="s">
-        <v>6011</v>
+        <v>6010</v>
       </c>
       <c r="P1104" s="1" t="s">
         <v>1930</v>
@@ -66023,7 +66043,7 @@
         <v>1858</v>
       </c>
       <c r="N1106" s="4" t="s">
-        <v>6012</v>
+        <v>6011</v>
       </c>
       <c r="P1106" s="1" t="s">
         <v>1858</v>
@@ -66067,7 +66087,7 @@
         <v>1495</v>
       </c>
       <c r="N1107" s="4" t="s">
-        <v>6013</v>
+        <v>6012</v>
       </c>
       <c r="P1107" s="1" t="s">
         <v>1495</v>
@@ -66152,7 +66172,7 @@
         <v>1869</v>
       </c>
       <c r="N1109" s="4" t="s">
-        <v>6014</v>
+        <v>6013</v>
       </c>
       <c r="P1109" s="1" t="s">
         <v>1869</v>
@@ -66287,7 +66307,7 @@
         <v>1331</v>
       </c>
       <c r="N1112" s="4" t="s">
-        <v>6015</v>
+        <v>6014</v>
       </c>
       <c r="P1112" s="1" t="s">
         <v>1331</v>
@@ -66334,7 +66354,7 @@
         <v>1387</v>
       </c>
       <c r="N1113" s="4" t="s">
-        <v>6016</v>
+        <v>6015</v>
       </c>
       <c r="P1113" s="1" t="s">
         <v>1387</v>
@@ -66378,7 +66398,7 @@
         <v>3319</v>
       </c>
       <c r="N1114" s="4" t="s">
-        <v>6017</v>
+        <v>6016</v>
       </c>
       <c r="P1114" s="1" t="s">
         <v>3319</v>
@@ -66519,7 +66539,7 @@
         <v>1706</v>
       </c>
       <c r="N1117" s="4" t="s">
-        <v>6018</v>
+        <v>6017</v>
       </c>
       <c r="P1117" s="1" t="s">
         <v>1706</v>
@@ -66563,7 +66583,7 @@
         <v>2024</v>
       </c>
       <c r="N1118" s="4" t="s">
-        <v>6019</v>
+        <v>6018</v>
       </c>
       <c r="P1118" s="1" t="s">
         <v>2024</v>
@@ -66663,7 +66683,7 @@
         <v>2045</v>
       </c>
       <c r="N1120" s="4" t="s">
-        <v>6020</v>
+        <v>6019</v>
       </c>
       <c r="P1120" s="1" t="s">
         <v>2045</v>
@@ -66977,7 +66997,7 @@
         <v>1235</v>
       </c>
       <c r="N1127" s="4" t="s">
-        <v>6043</v>
+        <v>6042</v>
       </c>
       <c r="P1127" s="1" t="s">
         <v>3867</v>
@@ -67015,7 +67035,7 @@
         <v>3865</v>
       </c>
       <c r="N1128" s="4" t="s">
-        <v>6045</v>
+        <v>6044</v>
       </c>
       <c r="P1128" s="1" t="s">
         <v>3868</v>
@@ -67053,7 +67073,7 @@
         <v>3866</v>
       </c>
       <c r="N1129" s="4" t="s">
-        <v>6044</v>
+        <v>6043</v>
       </c>
       <c r="P1129" s="1" t="s">
         <v>3869</v>
@@ -67091,7 +67111,7 @@
         <v>1633</v>
       </c>
       <c r="N1130" s="4" t="s">
-        <v>6021</v>
+        <v>6020</v>
       </c>
       <c r="P1130" s="1" t="s">
         <v>1633</v>
@@ -67457,11 +67477,14 @@
       <c r="K1138" s="1">
         <v>25</v>
       </c>
+      <c r="L1138" s="1">
+        <v>1</v>
+      </c>
       <c r="M1138" s="1" t="s">
+        <v>6045</v>
+      </c>
+      <c r="N1138" s="4" t="s">
         <v>6046</v>
-      </c>
-      <c r="N1138" s="4" t="s">
-        <v>6047</v>
       </c>
       <c r="P1138" s="1" t="s">
         <v>2967</v>

--- a/db/data.xlsx
+++ b/db/data.xlsx
@@ -18905,8 +18905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP1519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="172" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N858" sqref="N858"/>
+    <sheetView tabSelected="1" topLeftCell="F818" zoomScale="172" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N828" sqref="N828"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53644,6 +53644,9 @@
       <c r="H828" s="1">
         <v>1</v>
       </c>
+      <c r="L828" s="1">
+        <v>1</v>
+      </c>
       <c r="M828" s="1" t="s">
         <v>3758</v>
       </c>
